--- a/프로젝트/파이썬/워드 망령 추가/가라추가.xlsx
+++ b/프로젝트/파이썬/워드 망령 추가/가라추가.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enoz1f05\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enoz1f05\Desktop\워드 망령 추가\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>일일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,222 @@
   </si>
   <si>
     <t>삼삼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월수1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월수2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월수3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월수4</t>
+  </si>
+  <si>
+    <t>월수5</t>
+  </si>
+  <si>
+    <t>월수6</t>
+  </si>
+  <si>
+    <t>월수7</t>
+  </si>
+  <si>
+    <t>월수8</t>
+  </si>
+  <si>
+    <t>월수9</t>
+  </si>
+  <si>
+    <t>월수10</t>
+  </si>
+  <si>
+    <t>월수11</t>
+  </si>
+  <si>
+    <t>월수12</t>
+  </si>
+  <si>
+    <t>월수13</t>
+  </si>
+  <si>
+    <t>월수14</t>
+  </si>
+  <si>
+    <t>월수15</t>
+  </si>
+  <si>
+    <t>월수16</t>
+  </si>
+  <si>
+    <t>월수17</t>
+  </si>
+  <si>
+    <t>월수18</t>
+  </si>
+  <si>
+    <t>월수19</t>
+  </si>
+  <si>
+    <t>월수20</t>
+  </si>
+  <si>
+    <t>월수21</t>
+  </si>
+  <si>
+    <t>월수22</t>
+  </si>
+  <si>
+    <t>월수23</t>
+  </si>
+  <si>
+    <t>월수24</t>
+  </si>
+  <si>
+    <t>월수25</t>
+  </si>
+  <si>
+    <t>화목1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화목2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화목3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화목4</t>
+  </si>
+  <si>
+    <t>화목5</t>
+  </si>
+  <si>
+    <t>화목6</t>
+  </si>
+  <si>
+    <t>화목7</t>
+  </si>
+  <si>
+    <t>화목8</t>
+  </si>
+  <si>
+    <t>화목9</t>
+  </si>
+  <si>
+    <t>화목10</t>
+  </si>
+  <si>
+    <t>화목11</t>
+  </si>
+  <si>
+    <t>화목12</t>
+  </si>
+  <si>
+    <t>화목13</t>
+  </si>
+  <si>
+    <t>화목14</t>
+  </si>
+  <si>
+    <t>화목15</t>
+  </si>
+  <si>
+    <t>화목16</t>
+  </si>
+  <si>
+    <t>화목17</t>
+  </si>
+  <si>
+    <t>화목18</t>
+  </si>
+  <si>
+    <t>화목19</t>
+  </si>
+  <si>
+    <t>화목20</t>
+  </si>
+  <si>
+    <t>화목21</t>
+  </si>
+  <si>
+    <t>화목22</t>
+  </si>
+  <si>
+    <t>화목23</t>
+  </si>
+  <si>
+    <t>화목24</t>
+  </si>
+  <si>
+    <t>화목25</t>
+  </si>
+  <si>
+    <t>오이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오삼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔삼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십삼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,49 +605,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>